--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,31 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Manly</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Wollongong</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CBD</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Epping</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Blacktown</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Randwick</t>
         </is>
       </c>
@@ -457,13 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0.125</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +544,90 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>population(k)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>31</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>population growth</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.042</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>Randwick</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>0.2</v>
       </c>
+      <c r="J2" t="n">
+        <v>0.199990836</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>0.3</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.225430108</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>0.6</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.290411168</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>10</v>
       </c>
+      <c r="J5" t="n">
+        <v>17.125</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -628,6 +645,9 @@
       </c>
       <c r="I6" t="n">
         <v>-0.042</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.008500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -644,10 +644,10 @@
         <v>0.022</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.042</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0185</v>
       </c>
     </row>
   </sheetData>
